--- a/数据整理/stocks/A股/创业板/300601-康泰生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300601-康泰生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9226,7 +9227,6 @@
           <t>汇安丰裕灵活配置混合C</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
           <t>87.40</t>
@@ -9258,7 +9258,6 @@
           <t>广发聚优灵活配置混合H</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
           <t>88.28</t>
@@ -9273,6 +9272,4622 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>232.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.8153</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>147.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.8250</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>173.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.6284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>143.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.8604</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>116.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.9644</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.3098</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8068</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6071</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2075</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1620</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1030</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0662</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0101</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9284</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8050</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7809</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6906</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6152</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5700</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5402</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5100</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4917</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4872</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4808</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4747</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4432</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4086</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4006</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3900</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3884</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3836</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3731</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3421</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3037</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3005</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2836</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2643</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2504</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2465</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2461</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011040</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011041</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501026</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>财通多策略福享混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>32.78</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001172</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>001381</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300601-康泰生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300601-康泰生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13894,4 +13895,1808 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>192.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.1807</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>120.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.7469</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>145.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.0538</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4502</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3051</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0989</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0884</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9296</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5939</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4364</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4273</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3629</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2418</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2255</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1657</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001172</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>96.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001381</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300601-康泰生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300601-康泰生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15699,4 +15700,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>120</v>
+      </c>
+      <c r="D3" t="n">
+        <v>85.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>130</v>
+      </c>
+      <c r="D5" t="n">
+        <v>123.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300601-康泰生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300601-康泰生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15708,7 +15709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15719,17 +15720,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15739,14 +15760,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>46</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40.72</v>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>183.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.7886</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -15755,14 +15798,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>120</v>
-      </c>
-      <c r="D3" t="n">
-        <v>85.17</v>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>134.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.8256</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -15771,14 +15836,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90.75</v>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>139.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.3115</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -15787,13 +15874,1937 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>163.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.3755</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1909</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1841</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1805</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1582</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9550</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5470</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5381</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5107</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4500</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4051</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3961</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>43.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>120</v>
+      </c>
+      <c r="D4" t="n">
+        <v>85.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>130</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>123.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300601-康泰生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300601-康泰生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17703,7 +17704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17714,17 +17715,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17734,14 +17755,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>51</v>
-      </c>
-      <c r="D2" t="n">
-        <v>43.26</v>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>149.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.1512</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -17750,14 +17793,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>46</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40.72</v>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>139.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.4237</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -17766,14 +17831,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>120</v>
-      </c>
-      <c r="D4" t="n">
-        <v>85.17</v>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.4032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -17782,14 +17869,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>90.75</v>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>155.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.4189</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -17798,13 +17907,4119 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0728</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2303</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1619</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1227</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9117</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8811</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7099</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5278</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5219</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4778</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4776</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4711</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4063</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3982</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3831</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3421</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2978</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2427</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008716</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华优质回报两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>62.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>51.48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>57.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159760</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰康国证公共卫生与健康ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>56.27</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>45.89</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>97.73</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009384</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>95.87</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>57.78</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>109</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>120</v>
+      </c>
+      <c r="D5" t="n">
+        <v>85.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>130</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>123.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300601-康泰生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300601-康泰生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21902,7 +21903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21913,17 +21914,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -21933,14 +21954,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>109</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.83</v>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9149</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -21949,14 +21992,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>51</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43.26</v>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>116.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.7445</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -21965,14 +22030,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>46</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40.72</v>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6074</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -21981,14 +22068,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>120</v>
-      </c>
-      <c r="D5" t="n">
-        <v>85.17</v>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0011</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -21997,14 +22106,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>90.75</v>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9778</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -22013,13 +22144,1095 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8499</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4259</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3672</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2759</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515960</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实中证医药健康100策略ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003957</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003958</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005373</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005374</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>109</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>120</v>
+      </c>
+      <c r="D6" t="n">
+        <v>85.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>130</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>123.85</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300601-康泰生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300601-康泰生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>20.22</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>50.83</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="D4" t="n">
-        <v>43.26</v>
+        <v>50.83</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D5" t="n">
-        <v>40.72</v>
+        <v>43.26</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D6" t="n">
-        <v>85.17</v>
+        <v>40.72</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D7" t="n">
-        <v>90.75</v>
+        <v>85.17</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>130</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>123.85</v>
       </c>
     </row>
@@ -600,6 +617,668 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8750</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3540</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013599</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华润元大臻选回报混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519222</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519221</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013598</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华润元大臻选回报混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1795,7 +2474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5993,7 +6672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7987,7 +8666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9791,7 +10470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14407,7 +15086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18249,7 +18928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
